--- a/Semana4/Entregas/Carlos/InterpretaciónDatos.xlsx
+++ b/Semana4/Entregas/Carlos/InterpretaciónDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscortes/Downloads/ANTR-2029-ANTRCOMP/Semana4/Entregas/Carlos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiabiermann/Desktop/ANALISIS DATOS/ANTR-2029-ANTRCOMP/Semana4/Entregas/Carlos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CFBABC-6272-9F47-868F-74EAE1109387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFED6F5-71CE-2A41-8DCC-9B3AA3C54C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{D475151F-2F4E-2643-A2B0-6960DA2770E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{D475151F-2F4E-2643-A2B0-6960DA2770E2}"/>
   </bookViews>
   <sheets>
     <sheet name="FPC" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="variables" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">InterpretaciónDatos!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">InterpretaciónDatos!$A$1:$H$119</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="194">
   <si>
     <t>Año</t>
   </si>
@@ -639,14 +637,20 @@
     <t>=BUSCARH(valor_buscado;matriz;indicador_filas;verdadero/falso)</t>
   </si>
   <si>
-    <t>Jugardor a Buscar</t>
+    <t>Jugador a buscar</t>
+  </si>
+  <si>
+    <t>BUSCAR H (en la columna)</t>
+  </si>
+  <si>
+    <t>BUSCAR V (en la fila)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -712,6 +716,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -734,17 +745,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7180,7 +7192,7 @@
       <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" customWidth="1"/>
@@ -7188,20 +7200,20 @@
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7375,16 +7387,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="8">
         <v>1959</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -7392,10 +7404,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
@@ -7452,7 +7464,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="8">
         <v>1963</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7461,7 +7473,7 @@
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="9">
         <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7469,29 +7481,29 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="8">
         <v>1964</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="9">
         <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -7499,10 +7511,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
@@ -7593,7 +7605,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="8">
         <v>1970</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -7602,7 +7614,7 @@
       <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="9">
         <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -7610,20 +7622,20 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="8">
         <v>1971</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -7632,7 +7644,7 @@
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="9">
         <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -7640,14 +7652,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
@@ -7670,16 +7682,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="8">
         <v>1973</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="9">
         <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -7687,10 +7699,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="2" t="s">
         <v>39</v>
       </c>
@@ -8036,16 +8048,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54" s="8">
         <v>1994</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="9">
         <v>32</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -8053,24 +8065,24 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -8092,7 +8104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -8183,16 +8195,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="8">
         <v>2001</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="9">
         <v>29</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8200,17 +8212,17 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -8233,16 +8245,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="9">
         <v>13</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -8250,12 +8262,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
@@ -8312,16 +8324,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="9">
         <v>15</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -8329,12 +8341,12 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="2" t="s">
         <v>27</v>
       </c>
@@ -8357,16 +8369,16 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="9">
         <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -8374,12 +8386,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="2" t="s">
         <v>25</v>
       </c>
@@ -8402,16 +8414,16 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="9">
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -8419,18 +8431,18 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -8439,22 +8451,22 @@
       <c r="C82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="9">
         <v>13</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="8"/>
       <c r="B83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="2" t="s">
         <v>15</v>
       </c>
@@ -8477,7 +8489,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -8486,7 +8498,7 @@
       <c r="C85" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="9">
         <v>13</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -8494,14 +8506,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
@@ -8558,7 +8570,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -8567,7 +8579,7 @@
       <c r="C90" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="9">
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -8575,20 +8587,20 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -8597,7 +8609,7 @@
       <c r="C92" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="9">
         <v>16</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -8605,14 +8617,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="5"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="2" t="s">
         <v>15</v>
       </c>
@@ -8669,7 +8681,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -8678,7 +8690,7 @@
       <c r="C97" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="9">
         <v>9</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -8686,27 +8698,27 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="5"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="2" t="s">
         <v>114</v>
       </c>
@@ -8729,7 +8741,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -8738,7 +8750,7 @@
       <c r="C101" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="9">
         <v>16</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -8746,14 +8758,14 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D102" s="5"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="2" t="s">
         <v>39</v>
       </c>
@@ -8878,7 +8890,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -8887,7 +8899,7 @@
       <c r="C110" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="9">
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -8895,40 +8907,40 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D111" s="5"/>
+      <c r="D111" s="9"/>
       <c r="E111" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D112" s="5"/>
+      <c r="D112" s="9"/>
       <c r="E112" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D113" s="5"/>
+      <c r="D113" s="9"/>
       <c r="E113" s="2" t="s">
         <v>114</v>
       </c>
@@ -8985,7 +8997,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -8994,7 +9006,7 @@
       <c r="C117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="9">
         <v>13</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -9002,19 +9014,19 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D118" s="5"/>
+      <c r="D118" s="9"/>
       <c r="E118" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>149</v>
       </c>
@@ -9036,13 +9048,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -9051,7 +9063,7 @@
       <c r="C122" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="9">
         <v>11</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -9059,27 +9071,27 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="5"/>
+      <c r="D123" s="9"/>
       <c r="E123" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D124" s="5"/>
+      <c r="D124" s="9"/>
       <c r="E124" s="2" t="s">
         <v>114</v>
       </c>
@@ -9171,36 +9183,24 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
@@ -9208,24 +9208,36 @@
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="D122:D124"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Campeonato colombiano 1948" display="https://es.wikipedia.org/wiki/Campeonato_colombiano_1948" xr:uid="{2DFC90DA-EDA0-6C4F-9D69-26397875492A}"/>
@@ -9639,21 +9651,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC80745-D045-144D-ACAC-E37F5810C1E9}">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="11" max="11" width="21.83203125" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -9678,375 +9690,375 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>2023</v>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1949</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2023</v>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1967</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2022</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1965</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>2022</v>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1998</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>2021</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>1997</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>2021</v>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1996</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H7" t="s">
         <v>177</v>
       </c>
-      <c r="K7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>2021</v>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1978</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H8" t="s">
         <v>177</v>
       </c>
-      <c r="K8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L8" t="e">
-        <f>VLOOKUP(K8,A2:H119,2,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>2021</v>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1973</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>2020</v>
+        <v>177</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>1963</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>2019</v>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>1963</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>2019</v>
+      <c r="K11" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>1962</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" t="str">
+        <f>VLOOKUP(K12,C2:H119,3,TRUE)</f>
+        <v>Junior</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>1958</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>2018</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>1975</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>2018</v>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>1959</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -10055,180 +10067,190 @@
         <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>2017</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>1993</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>2017</v>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>1985</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>1979</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>168</v>
       </c>
-      <c r="G17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18">
+        <v>42</v>
+      </c>
+      <c r="L18">
+        <f>HLOOKUP(K18,D2:H119,4,TRUE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>1976</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>1974</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>179</v>
       </c>
-      <c r="G18" t="s">
-        <v>176</v>
-      </c>
-      <c r="H18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" t="s">
-        <v>168</v>
-      </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>2016</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>1994</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>2016</v>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1968</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -10237,76 +10259,76 @@
         <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>2015</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>1961</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>2015</v>
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>1966</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>2014</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>1951</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -10315,154 +10337,154 @@
         <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>2014</v>
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>1948</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>2013</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>1991</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>2013</v>
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>1977</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>2013</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>1972</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>2012</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>1960</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>2012</v>
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>1957</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -10471,128 +10493,128 @@
         <v>171</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>2012</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>2001</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>2012</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>2001</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>2011</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>1988</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>2011</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>1983</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>2010</v>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>1981</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
         <v>48</v>
@@ -10601,258 +10623,258 @@
         <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>2010</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>1964</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>2010</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>1982</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H38" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>2010</v>
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>1971</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G39" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H39" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>2009</v>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>1971</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>2009</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>1970</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G41" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H41" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>2008</v>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>1970</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>2008</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>1950</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H43" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>2008</v>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>1999</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H44" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>2007</v>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>1980</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
-        <v>2007</v>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>1992</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
@@ -10861,440 +10883,440 @@
         <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
-        <v>2007</v>
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>1990</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
-        <v>2006</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>2000</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
-        <v>2006</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>1995</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G49" t="s">
         <v>176</v>
       </c>
       <c r="H49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>2006</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>1969</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H50" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
-        <v>2005</v>
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>1987</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>2005</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>1986</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
-        <v>2005</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>1984</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H53" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
-        <v>2004</v>
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>1955</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
-        <v>2004</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>2019</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G55" t="s">
         <v>176</v>
       </c>
       <c r="H55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
-        <v>2004</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>1956</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="E56" t="s">
-        <v>35</v>
-      </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G56" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H56" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>2003</v>
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>1954</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D57">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" t="s">
+        <v>167</v>
+      </c>
+      <c r="H57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
         <v>17</v>
       </c>
-      <c r="E57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
-        <v>68</v>
-      </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
         <v>176</v>
       </c>
       <c r="H58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>1953</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H59" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B60" t="s">
         <v>18</v>
       </c>
-      <c r="C59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" t="s">
-        <v>176</v>
-      </c>
-      <c r="H59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B60" t="s">
-        <v>180</v>
-      </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G60" t="s">
         <v>176</v>
       </c>
       <c r="H60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
-        <v>2002</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>1952</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G61" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H61" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
-        <v>2001</v>
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D62">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
-        <v>2001</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>2009</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D63">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -11303,56 +11325,56 @@
         <v>171</v>
       </c>
       <c r="G63" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H63" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
-        <v>2000</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>2003</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G64" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
-        <v>1999</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>1989</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D65">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G65" t="s">
         <v>167</v>
@@ -11361,70 +11383,70 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
-        <v>1998</v>
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>2014</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="D66">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G66" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H66" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
-        <v>1997</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>2013</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D67">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G67" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
-        <v>1996</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>2013</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D68">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
         <v>39</v>
@@ -11433,76 +11455,76 @@
         <v>179</v>
       </c>
       <c r="G68" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
-        <v>1995</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>2010</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G69" t="s">
         <v>176</v>
       </c>
       <c r="H69" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
-        <v>1994</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>2010</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
         <v>171</v>
       </c>
       <c r="G70" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H70" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
-        <v>1993</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>2009</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D71">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
         <v>39</v>
@@ -11511,102 +11533,102 @@
         <v>179</v>
       </c>
       <c r="G71" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H71" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
-        <v>1992</v>
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>2008</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
         <v>25</v>
       </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
       <c r="F72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G72" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
-        <v>1991</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>2007</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D73">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G73" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>1990</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>2005</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H74" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
-        <v>1989</v>
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>2022</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -11615,128 +11637,128 @@
         <v>169</v>
       </c>
       <c r="G75" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H75" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>1988</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>2015</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D76">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
         <v>168</v>
       </c>
       <c r="G76" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H76" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
-        <v>1987</v>
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>2015</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" t="s">
+        <v>176</v>
+      </c>
+      <c r="H77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
         <v>23</v>
       </c>
-      <c r="E77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" t="s">
-        <v>173</v>
-      </c>
-      <c r="G77" t="s">
-        <v>167</v>
-      </c>
-      <c r="H77" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>1986</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78">
-        <v>23</v>
-      </c>
-      <c r="E78" t="s">
-        <v>17</v>
-      </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H78" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
-        <v>1985</v>
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>2004</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D79">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G79" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H79" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>1984</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>2004</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D80">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
         <v>27</v>
@@ -11745,206 +11767,206 @@
         <v>168</v>
       </c>
       <c r="G80" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
-        <v>1983</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>2020</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D81">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G81" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H81" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>1982</v>
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>2017</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H82" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
-        <v>1981</v>
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>2023</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D83">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H83" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>1980</v>
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>2022</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G84" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H84" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
-        <v>1979</v>
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>2021</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="D85">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H85" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>1978</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>2019</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="D86">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F86" t="s">
         <v>171</v>
       </c>
       <c r="G86" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H86" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
-        <v>1977</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>2019</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D87">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H87" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>1976</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>2014</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D88">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -11953,492 +11975,492 @@
         <v>168</v>
       </c>
       <c r="G88" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H88" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
-        <v>1975</v>
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>2012</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="D89">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G89" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H89" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>1974</v>
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>2008</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D90">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F90" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G90" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H90" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
-        <v>1973</v>
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>2008</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="D91">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G91" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H91" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>1972</v>
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>2007</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D92">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G92" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H92" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
-        <v>1971</v>
+    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>2007</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D93">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G93" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H93" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
-        <v>1971</v>
+    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>2004</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D94">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G94" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H94" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
-        <v>1970</v>
+    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>2003</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D95">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G95" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H95" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
-        <v>1970</v>
+    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>2002</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D96">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G96" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H96" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
-        <v>1969</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>2002</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D97">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G97" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H97" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
-        <v>1968</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>2002</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D98">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G98" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H98" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
-        <v>1967</v>
+    <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>2018</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="D99">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G99" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H99" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>1966</v>
+    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>2016</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D100">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F100" t="s">
         <v>168</v>
       </c>
       <c r="G100" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H100" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
-        <v>1965</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>2013</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D101">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G101" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H101" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>1964</v>
+    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>2011</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D102">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G102" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H102" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
-        <v>1963</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>2011</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G103" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H103" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
-        <v>1963</v>
+    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D104">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G104" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H104" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
-        <v>1962</v>
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>2010</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D105">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F105" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G105" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H105" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
-        <v>1961</v>
+    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>2005</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="D106">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F106" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G106" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H106" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
-        <v>1960</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>2005</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D107">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
@@ -12447,154 +12469,154 @@
         <v>173</v>
       </c>
       <c r="G107" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H107" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
-        <v>1959</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>2021</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D108">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F108" t="s">
         <v>171</v>
       </c>
       <c r="G108" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H108" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
-        <v>1958</v>
+    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>2021</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D109">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G109" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H109" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
-        <v>1957</v>
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>2021</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="D110">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="F110" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G110" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
-        <v>1956</v>
+    <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>2017</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D111">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G111" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H111" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
-        <v>1955</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>2017</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="D112">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G112" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H112" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
-        <v>1954</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>2017</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="D113">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
@@ -12603,172 +12625,172 @@
         <v>171</v>
       </c>
       <c r="G113" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H113" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
-        <v>1953</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>2017</v>
       </c>
       <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>114</v>
+      </c>
+      <c r="F114" t="s">
+        <v>168</v>
+      </c>
+      <c r="G114" t="s">
+        <v>176</v>
+      </c>
+      <c r="H114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" t="s">
+        <v>171</v>
+      </c>
+      <c r="G115" t="s">
+        <v>176</v>
+      </c>
+      <c r="H115" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116" t="s">
+        <v>178</v>
+      </c>
+      <c r="G116" t="s">
+        <v>176</v>
+      </c>
+      <c r="H116" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B117" t="s">
         <v>4</v>
       </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114">
-        <v>20</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>170</v>
-      </c>
-      <c r="G114" t="s">
-        <v>167</v>
-      </c>
-      <c r="H114" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
-        <v>1952</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115">
-        <v>19</v>
-      </c>
-      <c r="E115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" t="s">
-        <v>168</v>
-      </c>
-      <c r="G115" t="s">
-        <v>167</v>
-      </c>
-      <c r="H115" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
-        <v>1951</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116">
-        <v>31</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>168</v>
-      </c>
-      <c r="G116" t="s">
-        <v>167</v>
-      </c>
-      <c r="H116" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
-        <v>1950</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
       <c r="C117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117">
         <v>9</v>
       </c>
-      <c r="D117">
-        <v>27</v>
-      </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F117" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G117" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H117" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
-        <v>1949</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>2012</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D118">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G118" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H118" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
-        <v>1948</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>2012</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D119">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F119" t="s">
         <v>168</v>
       </c>
       <c r="G119" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H119" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{1BC80745-D045-144D-ACAC-E37F5810C1E9}">
+  <autoFilter ref="A1:H119" xr:uid="{1BC80745-D045-144D-ACAC-E37F5810C1E9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H119">
-      <sortCondition descending="1" ref="A1:A119"/>
+      <sortCondition descending="1" ref="D1:D119"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12783,142 +12805,142 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
